--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_238.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_238.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,374 +488,431 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06562847608453837</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['A#:7', 'D#:min', 'G#:min/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(50.13, 53.91)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:34.280000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:49.060000', '0:00:57.320000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.48, 9.64)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:51.280000', '0:02:04.160000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3314393939393939</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_247</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_7</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Ab/2', 'Eb:maj7'], ['Ab:maj7', 'F:min7', 'Ab/2']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min7', 'G/2', 'D:maj7'], ['G:maj7', 'E:min7', 'G/2']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(28.747, 34.098), (26.434, 32.551)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(23.539, 27.657), (204.057, 210.581)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1207729468599034</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.732085, 40.296348)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.5, 3.9)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1373873873873874</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:9', 'Eb', 'F:7']]</t>
-        </is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_243</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3344444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:9', 'C:maj/G', 'D:7']]</t>
+          <t>[['G', 'C', 'A:min', 'F', 'G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.83, 17.34)]</t>
+          <t>[['B', 'E', 'C#:min', 'A', 'B', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(58.02, 64.44)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:31.957392', '0:01:44.182698')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:39.654955', '0:00:52.054411')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'Bb:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(60.86, 67.913), (63.251, 70.247)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(65.76, 71.94), (16.92, 22.62)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:02.580000', '0:00:05.020000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09257602862254025</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.826145, 26.43068)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4540540540540541</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4487804878048781</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -859,254 +921,239 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(60.761383, 71.001383)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4497354497354498</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D', 'G', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['A', 'D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:04.063000', '0:00:09.774000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.82, 19.18)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.702, 13.841)]</t>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(44.2, 59.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1464987714987715</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb'], ['Bb', 'Bb', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.43, 14.59), (14.82, 16.26), (14.59, 15.31)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04), (20.56, 23.94), (9.4, 16.5)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2), (1.26, 5.44)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06785714285714287</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G/3']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
